--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56308.12667018394</v>
+        <v>54057.06596287854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571014</v>
+        <v>23845934.64571015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059638</v>
+        <v>9134618.112059636</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4898419.739418147</v>
+        <v>4867720.80700331</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.31056327198453</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.0716691005147</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>156.2681271316377</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.70674147327175</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>407.2606697395771</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.350305051013961</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>106.062636650466</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1150,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>74.06216992684945</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>74.47479140598074</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.582856075998</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>260.2915433175625</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1376,10 +1378,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>383.0646100373297</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>383.77171226255</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>166.9888977590065</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>225.259123432647</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.26230950814955</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>78.05983072375</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>385.3238927773753</v>
       </c>
       <c r="E17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>185.2906502383993</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.2727484050685</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>394.5194885856892</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>264.8725316566254</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2239,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>260.2915433175625</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2318,19 +2320,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>96.77884243873454</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.16791248334739</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2564,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>99.35326573358847</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>64.90507698037591</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>56.8451892925423</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>45.91568880648644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2959,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G31" t="n">
-        <v>3.13954148002296</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3041,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2920804530478</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="33">
@@ -3187,13 +3189,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04027365719915</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>28.46824604904427</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3269,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>255.9017348463055</v>
       </c>
       <c r="Y35" t="n">
-        <v>98.21370669789418</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>24.62703520776616</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,13 +3480,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649888</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.835969858054</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>403.4239299234998</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>239.8015903253609</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>56.8451892925423</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>238.8149445207416</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>181.1112426721135</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>125.6544692828918</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>244.8443529028505</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>282.0587206135786</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>53.15476611806653</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4310,7 +4312,7 @@
         <v>462.52534286434</v>
       </c>
       <c r="D2" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
         <v>33.94366860160834</v>
@@ -4364,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>929.7110254252771</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.4249017249305</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4419,7 +4421,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>733.0807024135913</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C4" t="n">
-        <v>733.0807024135913</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4492,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>733.0807024135913</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.0807024135913</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.52534286434</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C5" t="n">
-        <v>462.52534286434</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4574,13 +4576,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4601,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1694.809384574343</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1289.953929985376</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>870.8114665646866</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y5" t="n">
-        <v>462.52534286434</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4729,19 +4731,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4750,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1590.049453665805</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1344.17000724426</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.737006497366</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>778.7814983677961</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>506.7550939540876</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>261.3633392875001</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>109.1707306278516</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1621.956368054174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.339417988001</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4839633990338</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4869,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4966,19 +4968,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4990,22 +4992,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1535.988625963248</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.555625216353</v>
+        <v>1434.262679254597</v>
       </c>
       <c r="V10" t="n">
-        <v>970.6001170867833</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W10" t="n">
-        <v>698.5737126730747</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X10" t="n">
-        <v>453.1819580064872</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.7622873205955</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.3927724551322</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C11" t="n">
-        <v>890.3927724551322</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8110981924006</v>
+        <v>849.4592923969963</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>420.8776181342646</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5078,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.535235875821</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>890.3927724551322</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>890.3927724551322</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.4973157021125</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C13" t="n">
-        <v>368.4973157021125</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>202.6193229036352</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>202.6193229036352</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5206,7 +5208,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7616130750586</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N13" t="n">
         <v>761.8145120199619</v>
@@ -5227,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1469.648961966632</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1469.648961966632</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1182.693453837063</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.4973157021125</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.327975491451</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X14" t="n">
-        <v>873.1855120707613</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y14" t="n">
-        <v>464.8993883704147</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="15">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>455.1116977300199</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>282.5499862132448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>282.5499862132448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>112.7919824639821</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5443,16 +5445,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
+        <v>452.1535503695694</v>
+      </c>
+      <c r="N16" t="n">
         <v>872.2064493144727</v>
       </c>
-      <c r="N16" t="n">
-        <v>1292.259348259376</v>
-      </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5464,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U16" t="n">
-        <v>1451.303983658873</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.348475529303</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W16" t="n">
-        <v>892.3220711155946</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X16" t="n">
-        <v>646.930316449007</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.930316449007</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.52534286434</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C17" t="n">
-        <v>462.52534286434</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="D17" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
         <v>33.94366860160834</v>
@@ -5522,7 +5524,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M17" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
         <v>453.9965675465116</v>
@@ -5531,7 +5533,7 @@
         <v>874.0494664914149</v>
       </c>
       <c r="P17" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q17" t="n">
         <v>1697.183430080417</v>
@@ -5543,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>1289.953929985376</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>870.8114665646866</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y17" t="n">
-        <v>462.52534286434</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5603,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M18" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N18" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O18" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P18" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
         <v>1697.183430080417</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
         <v>33.94366860160834</v>
@@ -5674,19 +5676,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>930.0072868842942</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N19" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
         <v>1697.183430080417</v>
@@ -5716,7 +5718,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.5349435757807</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>743.9292024621484</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C20" t="n">
-        <v>743.9292024621484</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="D20" t="n">
-        <v>743.9292024621484</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E20" t="n">
-        <v>743.9292024621484</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>714.2412710704069</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2402.512814657059</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.657360068092</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1578.514896647403</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1170.228772947056</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N21" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O21" t="n">
-        <v>515.0619848335836</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P21" t="n">
-        <v>1175.902039375362</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q21" t="n">
-        <v>1716.640978007438</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1434.262679254597</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862856</v>
+        <v>518.386598053036</v>
       </c>
       <c r="L23" t="n">
-        <v>53.40121652862856</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M23" t="n">
-        <v>141.0418768474983</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N23" t="n">
-        <v>801.8819313892766</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="O23" t="n">
-        <v>1462.721985931055</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="P23" t="n">
-        <v>2123.562040472833</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6026,13 +6028,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W23" t="n">
-        <v>2670.060826431428</v>
+        <v>2572.304419927656</v>
       </c>
       <c r="X23" t="n">
-        <v>2250.918363010739</v>
+        <v>2153.161956506967</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>1744.87583280662</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O24" t="n">
-        <v>714.2412710704069</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P24" t="n">
-        <v>1375.081325612185</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q24" t="n">
         <v>1716.640978007438</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6172,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2545.844385276825</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1361.645008385326</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C26" t="n">
-        <v>923.502535568749</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D26" t="n">
-        <v>487.5927507431934</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>53.81800590148855</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862856</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L26" t="n">
-        <v>53.40121652862856</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M26" t="n">
-        <v>53.40121652862856</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N26" t="n">
-        <v>714.2412710704069</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6257,19 +6259,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2569.703992357096</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V26" t="n">
-        <v>2207.087042290922</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W26" t="n">
-        <v>2207.087042290922</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X26" t="n">
-        <v>1787.944578870233</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y26" t="n">
-        <v>1787.944578870233</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6299,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L27" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="M27" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N27" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="O27" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.8950539462403</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>590.3333424294652</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4553496309879</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>358.8946658124264</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K28" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6409,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.7136726652275</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1789.095648603258</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="C29" t="n">
-        <v>1350.953175786681</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D29" t="n">
-        <v>915.0433909611256</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M29" t="n">
-        <v>687.540662806093</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N29" t="n">
-        <v>1348.380717347871</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>2623.681342788512</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W29" t="n">
-        <v>2623.681342788512</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X29" t="n">
-        <v>2623.681342788512</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y29" t="n">
-        <v>2215.395219088166</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M30" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N30" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O30" t="n">
-        <v>714.2412710704069</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P30" t="n">
-        <v>1375.081325612185</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q30" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R30" t="n">
         <v>1716.640978007438</v>
@@ -6607,25 +6609,25 @@
         <v>233.2795245870976</v>
       </c>
       <c r="F31" t="n">
-        <v>56.57247054885377</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K31" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1625.99568129481</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C32" t="n">
-        <v>1625.99568129481</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D32" t="n">
-        <v>1190.085896469255</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E32" t="n">
-        <v>756.3111516275499</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F32" t="n">
-        <v>328.4437220367576</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M32" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O32" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U32" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>2045.1381447155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X32" t="n">
-        <v>1625.99568129481</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y32" t="n">
-        <v>1625.99568129481</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O33" t="n">
-        <v>714.2412710704069</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P33" t="n">
-        <v>1375.081325612185</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q33" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R33" t="n">
         <v>1716.640978007438</v>
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.4772326516122</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>247.7482955927446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>82.15702061857226</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X34" t="n">
-        <v>1160.715522056491</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.2958513705994</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1789.095648603258</v>
+        <v>892.9415207219413</v>
       </c>
       <c r="C35" t="n">
-        <v>1350.953175786681</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D35" t="n">
-        <v>915.0433909611256</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E35" t="n">
-        <v>481.2686461194208</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862856</v>
+        <v>518.386598053036</v>
       </c>
       <c r="L35" t="n">
-        <v>53.40121652862856</v>
+        <v>518.386598053036</v>
       </c>
       <c r="M35" t="n">
-        <v>632.7278666362198</v>
+        <v>518.386598053036</v>
       </c>
       <c r="N35" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O35" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V35" t="n">
-        <v>2307.443876365254</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W35" t="n">
-        <v>2307.443876365254</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="X35" t="n">
-        <v>1888.301412944565</v>
+        <v>1301.227644422288</v>
       </c>
       <c r="Y35" t="n">
-        <v>1789.095648603258</v>
+        <v>892.9415207219413</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N36" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O36" t="n">
-        <v>938.6281453713194</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P36" t="n">
         <v>1599.468199913098</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C37" t="n">
-        <v>590.3333424294652</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U37" t="n">
-        <v>1986.507010560985</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V37" t="n">
-        <v>1699.551502431415</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W37" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.133343351119</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y37" t="n">
-        <v>954.7136726652275</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="C38" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D38" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7202,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>1964.569699866108</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W38" t="n">
-        <v>1559.714245277141</v>
+        <v>1702.263968216354</v>
       </c>
       <c r="X38" t="n">
-        <v>1152.215326162495</v>
+        <v>1283.121504795665</v>
       </c>
       <c r="Y38" t="n">
-        <v>743.9292024621484</v>
+        <v>874.8353810953182</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M39" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N39" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O39" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P39" t="n">
-        <v>1375.081325612185</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q39" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R39" t="n">
         <v>1716.640978007438</v>
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>966.8681021663376</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C40" t="n">
-        <v>794.3063906495626</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D40" t="n">
-        <v>628.4283978510853</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E40" t="n">
-        <v>458.6703941018225</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F40" t="n">
-        <v>281.9633400635787</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L40" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7357,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262988</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.524550651513</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W40" t="n">
-        <v>1631.498146237804</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1386.106391571217</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y40" t="n">
-        <v>1158.686720885325</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.071675278725</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M41" t="n">
-        <v>714.2412710704069</v>
+        <v>518.386598053036</v>
       </c>
       <c r="N41" t="n">
-        <v>714.2412710704069</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V41" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W41" t="n">
-        <v>1423.298891966343</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X41" t="n">
-        <v>1182.071675278725</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y41" t="n">
-        <v>1182.071675278725</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N42" t="n">
-        <v>53.40121652862856</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="O42" t="n">
-        <v>515.0619848335836</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P42" t="n">
         <v>1175.902039375362</v>
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C43" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K43" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L43" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T43" t="n">
-        <v>2489.401636434796</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U43" t="n">
-        <v>2210.968635687901</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V43" t="n">
-        <v>1924.013127558332</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W43" t="n">
-        <v>1797.089421211977</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="X43" t="n">
-        <v>1551.697666545389</v>
+        <v>1454.159747764828</v>
       </c>
       <c r="Y43" t="n">
-        <v>1324.277995859497</v>
+        <v>1226.740077078936</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153.05332879786</v>
+        <v>1129.984005680854</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>1129.984005680854</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>1129.984005680854</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U44" t="n">
-        <v>1437.961127397434</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V44" t="n">
-        <v>1437.961127397434</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W44" t="n">
-        <v>1153.05332879786</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="X44" t="n">
-        <v>1153.05332879786</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="Y44" t="n">
-        <v>1153.05332879786</v>
+        <v>1556.283576165762</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J45" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K45" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L45" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M45" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N45" t="n">
-        <v>319.8519551513677</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O45" t="n">
-        <v>739.9048540962709</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>658.4958040965166</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C46" t="n">
-        <v>658.4958040965166</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D46" t="n">
-        <v>658.4958040965166</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W46" t="n">
-        <v>885.9154747824084</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X46" t="n">
-        <v>885.9154747824084</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y46" t="n">
-        <v>658.4958040965166</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8377,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8614,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8854,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N13" t="n">
         <v>310.9272166398487</v>
-      </c>
-      <c r="N13" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -9091,19 +9093,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>409.0142240616578</v>
+        <v>312.4013251831016</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9170,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="Q17" t="n">
         <v>407.1525905495951</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O18" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -9264,7 +9266,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9322,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9410,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O20" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M23" t="n">
-        <v>88.52591951400984</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N23" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q24" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="M27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10039,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10118,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>345.0097498941941</v>
+      </c>
+      <c r="P30" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P30" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q30" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q33" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>30.03100411261573</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10674,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O36" t="n">
-        <v>226.6534083847602</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O39" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.6534083847603</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11066,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O41" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="O42" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11306,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11385,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>262.4693064538401</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363.7260115080742</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22604,13 +22606,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>18.87936968596773</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>33.63230540015954</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>117.5124713972208</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22753,13 +22755,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22784,16 +22786,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>26.50037834883386</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22841,7 +22843,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>356.6404755144978</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22951,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>51.58631836451733</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="8">
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>212.1766830843665</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>182.1552882501725</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23188,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23230,10 +23232,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>83.83779588133126</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.3571274218632</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>40.52414525755466</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23318,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>17.03518778052705</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.9510857388548</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23467,10 +23469,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>18.16152852468224</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>392.7742652719091</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23504,10 +23506,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>355.9333732892778</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>96.88015277411134</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23704,10 +23706,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>46.2267941999246</v>
       </c>
       <c r="E17" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23783,7 +23785,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23792,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>215.5162498046778</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23902,7 +23904,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.87272557396435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>37.0311983916107</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24026,13 +24028,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>94.1182489088863</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>15.3571274218632</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24266,13 +24268,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>304.0280576043425</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.0353499799957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24461,7 +24463,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,10 +24499,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>157.2768139225648</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="27">
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1553467313942</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>365.1913854875164</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>313.0750917590253</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>125.091772609921</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24968,7 +24970,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -24977,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="33">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>110.034906517485</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>159.0493039401769</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.9895557654489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>6.200604922004686</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25442,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>11.52710886298263</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>44.2843627229129</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>365.1913854875164</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>176.1360942657408</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>8.789189859683745</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>143.6516710866795</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>184.5926444904372</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>118.7481794294984</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>114.9056575937036</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354596.8958081167</v>
+        <v>354596.8958081168</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354596.8958081168</v>
+        <v>354596.895808117</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354596.8958081169</v>
+        <v>354596.8958081168</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498832.0619754101</v>
+        <v>354596.8958081169</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498832.0619754101</v>
+        <v>498832.0619754102</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498832.0619754101</v>
+        <v>498832.0619754102</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498832.0619754101</v>
+        <v>498832.0619754102</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498832.0619754101</v>
+        <v>498832.0619754102</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354596.8958081168</v>
+        <v>498832.0619754102</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="C2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="D2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="E2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="F2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="G2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="H2" t="n">
+        <v>66111.28565914044</v>
+      </c>
+      <c r="I2" t="n">
         <v>93002.58782592394</v>
       </c>
-      <c r="I2" t="n">
-        <v>93002.58782592391</v>
-      </c>
       <c r="J2" t="n">
-        <v>93002.58782592391</v>
+        <v>93002.58782592393</v>
       </c>
       <c r="K2" t="n">
+        <v>93002.58782592394</v>
+      </c>
+      <c r="L2" t="n">
         <v>93002.58782592393</v>
       </c>
-      <c r="L2" t="n">
-        <v>93002.58782592391</v>
-      </c>
       <c r="M2" t="n">
-        <v>93002.58782592391</v>
+        <v>93002.58782592393</v>
       </c>
       <c r="N2" t="n">
-        <v>93002.58782592391</v>
+        <v>93002.58782592394</v>
       </c>
       <c r="O2" t="n">
-        <v>93002.58782592391</v>
+        <v>93002.58782592394</v>
       </c>
       <c r="P2" t="n">
-        <v>66111.28565914044</v>
+        <v>93002.58782592394</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876429</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26433,31 +26435,31 @@
         <v>367.9287957210698</v>
       </c>
       <c r="H4" t="n">
-        <v>517.5868204130782</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="I4" t="n">
         <v>517.5868204130782</v>
       </c>
       <c r="J4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="K4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="L4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="M4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="N4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="O4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="P4" t="n">
-        <v>367.9287957210698</v>
+        <v>517.5868204130782</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-135872.7319335129</v>
       </c>
       <c r="C6" t="n">
-        <v>6318.568726197009</v>
+        <v>6318.568726197031</v>
       </c>
       <c r="D6" t="n">
-        <v>6318.568726197023</v>
+        <v>6318.568726197031</v>
       </c>
       <c r="E6" t="n">
-        <v>39946.16872619704</v>
+        <v>39946.16872619701</v>
       </c>
       <c r="F6" t="n">
-        <v>39946.16872619702</v>
+        <v>39946.16872619701</v>
       </c>
       <c r="G6" t="n">
-        <v>39946.16872619702</v>
+        <v>39946.16872619703</v>
       </c>
       <c r="H6" t="n">
-        <v>-13722.69291426429</v>
+        <v>39946.16872619703</v>
       </c>
       <c r="I6" t="n">
-        <v>51900.07644375313</v>
+        <v>-12777.05608501114</v>
       </c>
       <c r="J6" t="n">
         <v>-59114.38890123705</v>
       </c>
       <c r="K6" t="n">
+        <v>51900.07644375315</v>
+      </c>
+      <c r="L6" t="n">
         <v>51900.07644375314</v>
       </c>
-      <c r="L6" t="n">
-        <v>51900.07644375313</v>
-      </c>
       <c r="M6" t="n">
-        <v>51900.07644375313</v>
+        <v>51900.07644375314</v>
       </c>
       <c r="N6" t="n">
-        <v>51900.07644375313</v>
+        <v>51900.07644375315</v>
       </c>
       <c r="O6" t="n">
-        <v>51900.07644375313</v>
+        <v>51900.07644375315</v>
       </c>
       <c r="P6" t="n">
-        <v>39946.16872619702</v>
+        <v>51900.07644375315</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35097,22 +35099,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35334,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35574,10 +35576,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N13" t="n">
         <v>310.9272166398487</v>
-      </c>
-      <c r="N13" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -35811,19 +35813,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>409.0142240616578</v>
+        <v>312.4013251831016</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35892,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="Q17" t="n">
         <v>407.1525905495951</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O18" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -35984,7 +35986,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36130,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O20" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M23" t="n">
-        <v>88.52591951400984</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N23" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q24" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="M27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36838,22 +36840,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>345.0097498941941</v>
+      </c>
+      <c r="P30" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P30" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q30" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,22 +37077,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q33" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>30.03100411261573</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37394,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O36" t="n">
-        <v>226.6534083847602</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,7 +37478,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37552,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O39" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.6534083847603</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O41" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37868,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="O42" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38026,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>262.4693064538401</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54057.06596287854</v>
+        <v>48557.94107180028</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059636</v>
+        <v>9134618.11205964</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4867720.80700331</v>
+        <v>4867720.807003309</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>396.0716691005147</v>
+        <v>329.4976936655855</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>67.13877455783249</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>407.2606697395771</v>
+        <v>152.1827705982494</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>178.8840210439212</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.2681271316377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>74.06216992684945</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>75.29716411006039</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>65.3146423420019</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>260.2915433175625</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>85.22256772912013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.10580305650015</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.259123432647</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>69.97066016908303</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>159.582856075998</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1843,14 +1843,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D17" t="n">
-        <v>385.3238927773753</v>
-      </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>176.2749727241118</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>235.8440432443239</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>394.5194885856892</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>139.0500605498272</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>260.2915433175625</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>96.77884243873454</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>377.1801623483086</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.426406635550906</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.16791248334784</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.8451892925423</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>192.7633299162957</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>39.57637241135509</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>374.3891321854045</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.16791248334784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46824604904427</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>185.1447535886765</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>255.9017348463055</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>157.8824880649888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.835969858054</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>52.47823691309102</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>129.2606839525049</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56.8451892925423</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>268.3727301458093</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.1112426721135</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>244.8443529028505</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>28.90513582528527</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
         <v>33.94366860160834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X2" t="n">
-        <v>1297.111037049594</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="Y2" t="n">
-        <v>888.8249133492478</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C4" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>267.3518875735913</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>267.3518875735913</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>267.3518875735913</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>101.7606125994189</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,46 +4494,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.4973157021125</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.1855120707613</v>
+        <v>187.6636389028704</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4576,13 +4576,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M5" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N5" t="n">
         <v>267.8706684926505</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4600,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.1855120707613</v>
+        <v>613.9632093877782</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G7" t="n">
         <v>33.94366860160834</v>
@@ -4731,19 +4731,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4752,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1357.251131031019</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1111.859376364431</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.6507226398521</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>109.1707306278516</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N9" t="n">
         <v>319.8519551513677</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>442.2163838180668</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>265.509329779823</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>99.91805480565068</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4968,46 +4968,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1434.262679254597</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>1147.307171125027</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W10" t="n">
-        <v>875.2807667113186</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X10" t="n">
-        <v>629.8890120447311</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.4693413588393</v>
+        <v>634.035002537054</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4592923969963</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="E11" t="n">
-        <v>420.8776181342646</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>120.0270703481943</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>521.4249017249305</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.8484307043673</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C13" t="n">
-        <v>546.2867191875922</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4087263891149</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>250.1515338080341</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>73.44447976979032</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5199,16 +5199,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L13" t="n">
-        <v>33.94366860160834</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M13" t="n">
-        <v>453.9965675465116</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
         <v>761.8145120199619</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1469.648961966632</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U13" t="n">
-        <v>1469.648961966632</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V13" t="n">
-        <v>1182.693453837063</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W13" t="n">
-        <v>910.6670494233545</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X13" t="n">
-        <v>910.6670494233545</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y13" t="n">
-        <v>910.6670494233545</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2824383042412</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2824383042412</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="X14" t="n">
-        <v>510.5685620045878</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2824383042412</v>
+        <v>1250.914606198081</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5448,7 +5448,7 @@
         <v>452.1535503695694</v>
       </c>
       <c r="N16" t="n">
-        <v>872.2064493144727</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5466,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.988625963248</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>851.7413961748201</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="C17" t="n">
-        <v>423.1597219120885</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5524,19 +5524,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5551,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y17" t="n">
-        <v>1278.040966659728</v>
+        <v>929.7110254252771</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L18" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M18" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N18" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O18" t="n">
         <v>739.9048540962709</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5673,52 +5673,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1191.659856056847</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1288.897306380071</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="C20" t="n">
-        <v>1288.897306380071</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="D20" t="n">
-        <v>890.3927724551322</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>174.3982752175954</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>174.3982752175954</v>
       </c>
       <c r="H20" t="n">
         <v>33.94366860160834</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y20" t="n">
-        <v>1288.897306380071</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
         <v>1580.010651986078</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.6507226398521</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C22" t="n">
-        <v>210.6507226398521</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D22" t="n">
-        <v>210.6507226398521</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E22" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M22" t="n">
-        <v>872.2064493144727</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1434.262679254597</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V22" t="n">
-        <v>1147.307171125027</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W22" t="n">
-        <v>875.2807667113186</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X22" t="n">
-        <v>629.8890120447311</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y22" t="n">
-        <v>402.4693413588393</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1318.576262321712</v>
+        <v>1214.448588743694</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.576262321712</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="D23" t="n">
-        <v>882.6664774961569</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E23" t="n">
-        <v>882.6664774961569</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F23" t="n">
-        <v>454.7990479053647</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>518.386598053036</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L23" t="n">
-        <v>1179.226652594814</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M23" t="n">
-        <v>1840.066707136593</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N23" t="n">
-        <v>2500.906761678372</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V23" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W23" t="n">
-        <v>2572.304419927656</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X23" t="n">
-        <v>2153.161956506967</v>
+        <v>1622.73471244404</v>
       </c>
       <c r="Y23" t="n">
-        <v>1744.87583280662</v>
+        <v>1214.448588743694</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
         <v>1716.640978007438</v>
@@ -6138,13 +6138,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.095648603258</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.953175786681</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K26" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L26" t="n">
-        <v>801.8819313892767</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M26" t="n">
-        <v>1462.721985931055</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N26" t="n">
-        <v>2123.562040472834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
-        <v>2123.562040472834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2357.830203634212</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>1995.213253568038</v>
       </c>
       <c r="W26" t="n">
-        <v>2670.060826431428</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="X26" t="n">
-        <v>2250.918363010739</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="Y26" t="n">
-        <v>2215.395219088166</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K27" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L27" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M27" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N27" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O27" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6375,13 +6375,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,7 +6408,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S28" t="n">
         <v>2651.821657388744</v>
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>454.7990479053647</v>
+        <v>1609.939104869517</v>
       </c>
       <c r="C29" t="n">
-        <v>454.7990479053647</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="D29" t="n">
-        <v>454.7990479053647</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E29" t="n">
-        <v>454.7990479053647</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F29" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2391.69851835638</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2391.69851835638</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739147</v>
+        <v>2029.081568290207</v>
       </c>
       <c r="W29" t="n">
-        <v>1339.647018150181</v>
+        <v>2029.081568290207</v>
       </c>
       <c r="X29" t="n">
-        <v>920.5045547294914</v>
+        <v>1609.939104869517</v>
       </c>
       <c r="Y29" t="n">
-        <v>512.2184310291448</v>
+        <v>1609.939104869517</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M30" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N30" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O30" t="n">
-        <v>1055.800923465659</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P30" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
         <v>1716.640978007438</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870976</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F31" t="n">
-        <v>193.303390838254</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G31" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K31" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="32">
@@ -6685,67 +6685,67 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M32" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N32" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X32" t="n">
-        <v>2250.918363010739</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y32" t="n">
-        <v>2215.395219088166</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R33" t="n">
         <v>1716.640978007438</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>424.4553496309884</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>247.7482955927446</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>82.15702061857226</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6870,7 +6870,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>892.9415207219413</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C35" t="n">
-        <v>454.7990479053647</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="D35" t="n">
-        <v>454.7990479053647</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="E35" t="n">
-        <v>454.7990479053647</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K35" t="n">
-        <v>518.386598053036</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L35" t="n">
-        <v>518.386598053036</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M35" t="n">
-        <v>518.386598053036</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N35" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6967,22 +6967,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.186649932282</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>1964.569699866109</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>1559.714245277142</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X35" t="n">
-        <v>1301.227644422288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y35" t="n">
-        <v>892.9415207219413</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
         <v>1599.468199913098</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C37" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D37" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E37" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F37" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G37" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7101,13 +7101,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7122,25 +7122,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U37" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W37" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y37" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>454.7990479053647</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C38" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D38" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E38" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F38" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N38" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2617.052506317194</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2357.830203634212</v>
       </c>
       <c r="V38" t="n">
-        <v>2107.119422805321</v>
+        <v>1995.213253568038</v>
       </c>
       <c r="W38" t="n">
-        <v>1702.263968216354</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="X38" t="n">
-        <v>1283.121504795665</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="Y38" t="n">
-        <v>874.8353810953182</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R39" t="n">
         <v>1716.640978007438</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.8950539462408</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C40" t="n">
-        <v>590.3333424294657</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D40" t="n">
-        <v>424.4553496309884</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E40" t="n">
-        <v>254.6973458817257</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F40" t="n">
-        <v>77.99029184348186</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7362,22 +7362,22 @@
         <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2380.253110302652</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>2101.820109555757</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431416</v>
+        <v>1814.864601426188</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.13334335112</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.7136726652279</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>454.7990479053647</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="C41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M41" t="n">
-        <v>518.386598053036</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N41" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.119422805321</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739147</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.647018150181</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X41" t="n">
-        <v>920.5045547294914</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y41" t="n">
-        <v>512.2184310291448</v>
+        <v>1015.012768265996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
         <v>1716.640978007438</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1043.799427915185</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C43" t="n">
-        <v>871.2377163984103</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D43" t="n">
-        <v>705.359723599933</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E43" t="n">
-        <v>535.6017198506702</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F43" t="n">
-        <v>358.8946658124264</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G43" t="n">
         <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U43" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W43" t="n">
-        <v>1699.551502431416</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X43" t="n">
-        <v>1454.159747764828</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y43" t="n">
-        <v>1226.740077078936</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1129.984005680854</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="C44" t="n">
-        <v>1129.984005680854</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="D44" t="n">
-        <v>1129.984005680854</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E44" t="n">
         <v>882.6664774961569</v>
@@ -7639,61 +7639,61 @@
         <v>454.7990479053647</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>2640.8637195372</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.408952615265</v>
+        <v>2420.796492410239</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.186649932282</v>
+        <v>2161.574189727256</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.569699866109</v>
+        <v>2161.574189727256</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.569699866109</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="X44" t="n">
-        <v>1964.569699866109</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="Y44" t="n">
-        <v>1556.283576165762</v>
+        <v>1756.718735138289</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M45" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N45" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O45" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P45" t="n">
         <v>1058.729261281022</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8379,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N7" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>424.2958575201043</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="N13" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9096,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O16" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O17" t="n">
         <v>424.2958575201043</v>
@@ -9184,10 +9184,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P21" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>469.6822035600076</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>30.03100411261573</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>469.6822035600076</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>347.9676668794093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.87936968596773</v>
+        <v>85.45334512089687</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.63230540015954</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>71.36437800869673</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.50037834883386</v>
+        <v>281.5782774901615</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22795,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22840,7 +22840,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22944,19 +22944,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22992,25 +22992,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>90.42211932565021</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.8773468473951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>212.1766830843665</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>339.653874676422</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>73.18851022452732</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.3571274218632</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>40.52414525755466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>201.0162852820958</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23317,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>124.8295591679305</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>18.16152852468224</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>352.0659146109757</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>355.9333732892778</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23664,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23706,7 +23706,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>83.83779588133126</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>46.2267941999246</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>221.108880338857</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23791,13 +23791,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>33.46209712524751</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,10 +23974,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>37.0311983916107</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>147.1887924613887</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>15.3571274218632</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>304.0280576043425</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>37.77087643817379</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>248.2036730206024</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>369.0353499799953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>365.1913854875164</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>25.10322493939606</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>47.64744259465414</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>369.0353499799953</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>110.034906517485</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,16 +25165,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>238.4440017062078</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>159.0493039401769</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.200604922004686</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>165.3883179426007</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>114.1599680048244</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>365.1913854875164</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>165.3883179426016</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.789189859683745</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>184.5926444904372</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>53.91021925271609</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354596.895808117</v>
+        <v>354596.8958081168</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354596.8958081168</v>
+        <v>354596.895808117</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354596.8958081169</v>
+        <v>354596.8958081168</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498832.0619754102</v>
+        <v>498832.0619754101</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498832.0619754102</v>
+        <v>498832.0619754101</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498832.0619754101</v>
+        <v>498832.06197541</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498832.0619754101</v>
+        <v>498832.0619754102</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498832.0619754102</v>
+        <v>498832.0619754101</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498832.0619754102</v>
+        <v>498832.0619754101</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="C2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914046</v>
       </c>
       <c r="D2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="E2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="F2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914046</v>
       </c>
       <c r="G2" t="n">
         <v>66111.28565914044</v>
@@ -26334,28 +26334,28 @@
         <v>66111.28565914044</v>
       </c>
       <c r="I2" t="n">
-        <v>93002.58782592394</v>
+        <v>93002.5878259239</v>
       </c>
       <c r="J2" t="n">
-        <v>93002.58782592393</v>
+        <v>93002.58782592391</v>
       </c>
       <c r="K2" t="n">
-        <v>93002.58782592394</v>
+        <v>93002.58782592391</v>
       </c>
       <c r="L2" t="n">
-        <v>93002.58782592393</v>
+        <v>93002.58782592391</v>
       </c>
       <c r="M2" t="n">
         <v>93002.58782592393</v>
       </c>
       <c r="N2" t="n">
-        <v>93002.58782592394</v>
+        <v>93002.58782592393</v>
       </c>
       <c r="O2" t="n">
-        <v>93002.58782592394</v>
+        <v>93002.58782592391</v>
       </c>
       <c r="P2" t="n">
-        <v>93002.58782592394</v>
+        <v>93002.58782592393</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>64677.13252876429</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26438,28 +26438,28 @@
         <v>367.9287957210698</v>
       </c>
       <c r="I4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="J4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="K4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="L4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="M4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="N4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="O4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="P4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135872.7319335129</v>
+        <v>-136612.0885454286</v>
       </c>
       <c r="C6" t="n">
-        <v>6318.568726197031</v>
+        <v>5579.212114281384</v>
       </c>
       <c r="D6" t="n">
-        <v>6318.568726197031</v>
+        <v>5579.212114281369</v>
       </c>
       <c r="E6" t="n">
-        <v>39946.16872619701</v>
+        <v>39206.81211428137</v>
       </c>
       <c r="F6" t="n">
-        <v>39946.16872619701</v>
+        <v>39206.81211428138</v>
       </c>
       <c r="G6" t="n">
-        <v>39946.16872619703</v>
+        <v>39206.81211428137</v>
       </c>
       <c r="H6" t="n">
-        <v>39946.16872619703</v>
+        <v>39206.81211428137</v>
       </c>
       <c r="I6" t="n">
-        <v>-12777.05608501114</v>
+        <v>-13271.94631359241</v>
       </c>
       <c r="J6" t="n">
-        <v>-59114.38890123705</v>
+        <v>-59609.27912981831</v>
       </c>
       <c r="K6" t="n">
-        <v>51900.07644375315</v>
+        <v>51405.18621517187</v>
       </c>
       <c r="L6" t="n">
-        <v>51900.07644375314</v>
+        <v>51405.18621517187</v>
       </c>
       <c r="M6" t="n">
-        <v>51900.07644375314</v>
+        <v>51405.18621517188</v>
       </c>
       <c r="N6" t="n">
-        <v>51900.07644375315</v>
+        <v>51405.18621517188</v>
       </c>
       <c r="O6" t="n">
-        <v>51900.07644375315</v>
+        <v>51405.18621517187</v>
       </c>
       <c r="P6" t="n">
-        <v>51900.07644375315</v>
+        <v>51405.18621517188</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35099,22 +35099,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N7" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>424.2958575201043</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="N13" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35816,10 +35816,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O16" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35892,10 +35892,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O17" t="n">
         <v>424.2958575201043</v>
@@ -35904,10 +35904,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P21" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>469.6822035600076</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36761,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36998,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37077,22 +37077,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37235,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>30.03100411261573</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37317,16 +37317,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37469,16 +37469,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37788,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>469.6822035600076</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>347.9676668794093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
